--- a/examples.xlsx
+++ b/examples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xintao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xintao\Desktop\pending schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="181">
-  <si>
-    <t>on on on on</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="251">
   <si>
     <t>(0, 0, 0, 0)</t>
   </si>
@@ -294,35 +291,635 @@
     <t>-, -, Off, Off</t>
   </si>
   <si>
+    <t>FIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 1, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 1, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 1, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 1, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 1, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 0, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 0, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 0, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 0, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINOLP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 0, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off On On On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 0, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 0, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 0, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 0, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On On On On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 0, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 0, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off On Off On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off On Off Off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off Off On On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 1, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off, On, -, -</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 0, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off On On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 0, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 0, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 0, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>(-, 0, -, -)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FIC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 1, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, -, -)</t>
+    <t>(-, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove-Pending</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off Off Off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On On On On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off On Off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off Off On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On On Off On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On On On Off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off Off Off On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off Off On Off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 0, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, 1)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -330,335 +927,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(0, 1, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 1, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 1, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FINOLP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off On On On</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>(1, -, -, -)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(1, -, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>On On On On</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>11(1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>12(2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off On Off On</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off On Off Off</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off Off On On</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>14(5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off, On, -, -</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Off On On</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>(-, 0, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 1, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, 1)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1252,8 +1533,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1577,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1592,7 +1879,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1600,68 +1887,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1669,68 +1956,68 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1738,68 +2025,68 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1807,68 +2094,68 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1876,68 +2163,142 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +2325,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1976,7 +2337,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1984,68 +2345,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -2053,71 +2414,71 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2125,68 +2486,68 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -2194,68 +2555,68 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -2263,73 +2624,73 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -2337,68 +2698,68 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -2406,68 +2767,68 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
       <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
       <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
         <v>74</v>
       </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -2475,68 +2836,68 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
         <v>79</v>
       </c>
-      <c r="G25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
         <v>50</v>
-      </c>
-      <c r="H26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2544,86 +2905,86 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
         <v>84</v>
       </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2631,68 +2992,68 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" t="s">
-        <v>51</v>
+      <c r="H35" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2705,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2718,7 +3079,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -2726,68 +3087,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -2795,71 +3156,71 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2867,68 +3228,68 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -2936,68 +3297,68 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -3005,73 +3366,73 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -3079,68 +3440,68 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -3148,68 +3509,68 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
       <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
       <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
         <v>74</v>
       </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -3217,68 +3578,68 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" t="s">
         <v>79</v>
       </c>
-      <c r="G25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
         <v>50</v>
-      </c>
-      <c r="H26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -3286,86 +3647,86 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
         <v>84</v>
       </c>
-      <c r="H28" t="s">
-        <v>85</v>
-      </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -3373,68 +3734,68 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
         <v>55</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>56</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>59</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
         <v>62</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" t="s">
         <v>64</v>
       </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" t="s">
-        <v>51</v>
+      <c r="H35" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +3809,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3460,7 +3821,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -3468,68 +3829,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -3537,68 +3898,68 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -3606,68 +3967,68 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -3675,68 +4036,68 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -3744,73 +4105,73 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -3818,68 +4179,68 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -3887,224 +4248,224 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>101</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>102</v>
-      </c>
-      <c r="H22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>8</v>
+      <c r="A24" t="s">
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>107</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>108</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
         <v>112</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>113</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>114</v>
       </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" t="s">
-        <v>116</v>
-      </c>
       <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
         <v>50</v>
       </c>
-      <c r="H26" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>9</v>
+      <c r="A27" t="s">
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>119</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>120</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>121</v>
       </c>
-      <c r="G28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" t="s">
-        <v>123</v>
-      </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -4112,68 +4473,68 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
         <v>55</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>56</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
         <v>62</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" t="s">
-        <v>51</v>
+      <c r="H35" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4187,8 +4548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I58" sqref="A1:I58"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4200,7 +4561,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -4208,68 +4569,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -4277,68 +4638,68 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -4346,68 +4707,68 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -4415,68 +4776,68 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -4484,73 +4845,73 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -4558,68 +4919,68 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -4627,224 +4988,224 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>101</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>102</v>
-      </c>
-      <c r="H22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>8</v>
+      <c r="A24" t="s">
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>107</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>108</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
         <v>112</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>113</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>114</v>
       </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" t="s">
-        <v>116</v>
-      </c>
       <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
         <v>50</v>
       </c>
-      <c r="H26" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>9</v>
+      <c r="A27" t="s">
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>119</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>120</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>121</v>
       </c>
-      <c r="G28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" t="s">
-        <v>123</v>
-      </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -4852,193 +5213,193 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
         <v>137</v>
       </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>138</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>139</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>140</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>141</v>
-      </c>
-      <c r="H34" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>12</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
         <v>144</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>8</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>9</v>
       </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
       <c r="I38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>12</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>16</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
         <v>20</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>21</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>22</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>23</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>24</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>25</v>
       </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
         <v>27</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>28</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>29</v>
       </c>
-      <c r="E42" t="s">
-        <v>30</v>
-      </c>
       <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
         <v>15</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>16</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -5046,143 +5407,143 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
         <v>55</v>
       </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
       <c r="E44" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
         <v>160</v>
       </c>
-      <c r="F44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>161</v>
-      </c>
-      <c r="H44" t="s">
-        <v>162</v>
-      </c>
-      <c r="I44" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
         <v>55</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>56</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>57</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>58</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>59</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>60</v>
-      </c>
-      <c r="I47" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
         <v>62</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>63</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
         <v>64</v>
       </c>
-      <c r="F48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -5190,67 +5551,67 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s">
         <v>174</v>
       </c>
-      <c r="D54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" t="s">
-        <v>176</v>
-      </c>
       <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
         <v>15</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>16</v>
-      </c>
-      <c r="H54" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -5258,68 +5619,68 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
         <v>55</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>56</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I57" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
         <v>62</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" t="s">
-        <v>65</v>
-      </c>
-      <c r="H58" t="s">
-        <v>51</v>
+      <c r="H58" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5330,14 +5691,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="13.875" bestFit="1" customWidth="1"/>
@@ -5345,7 +5707,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -5353,68 +5715,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -5422,68 +5784,68 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -5491,68 +5853,68 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -5560,68 +5922,68 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -5629,73 +5991,73 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -5703,68 +6065,68 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
         <v>64</v>
       </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -5772,224 +6134,224 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
         <v>98</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>99</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>101</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>102</v>
-      </c>
-      <c r="H22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>8</v>
+      <c r="A24" t="s">
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>107</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>108</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
         <v>112</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>113</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>114</v>
       </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" t="s">
-        <v>116</v>
-      </c>
       <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
         <v>50</v>
       </c>
-      <c r="H26" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>9</v>
+      <c r="A27" t="s">
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>119</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>120</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>121</v>
       </c>
-      <c r="G28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" t="s">
-        <v>123</v>
-      </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>125</v>
       </c>
-      <c r="D29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -5997,193 +6359,193 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
         <v>137</v>
       </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>138</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>139</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>140</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>141</v>
-      </c>
-      <c r="H34" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>12</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>14</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
         <v>144</v>
-      </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>8</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>9</v>
       </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
       <c r="I38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>12</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>16</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
         <v>20</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>21</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>22</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>23</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>24</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>25</v>
       </c>
-      <c r="H41" t="s">
-        <v>26</v>
-      </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
         <v>27</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>28</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>29</v>
       </c>
-      <c r="E42" t="s">
-        <v>30</v>
-      </c>
       <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
         <v>15</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>16</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -6191,143 +6553,143 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
         <v>55</v>
       </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
       <c r="E44" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" t="s">
         <v>160</v>
       </c>
-      <c r="F44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>161</v>
-      </c>
-      <c r="H44" t="s">
-        <v>162</v>
-      </c>
-      <c r="I44" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
         <v>55</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>56</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>57</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>58</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>59</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>60</v>
-      </c>
-      <c r="I47" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
         <v>62</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>63</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
         <v>64</v>
       </c>
-      <c r="F48" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -6335,67 +6697,67 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
         <v>6</v>
       </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s">
         <v>174</v>
       </c>
-      <c r="D54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" t="s">
-        <v>176</v>
-      </c>
       <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
         <v>15</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>16</v>
-      </c>
-      <c r="H54" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -6403,72 +6765,404 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
         <v>55</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>56</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I57" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s">
+        <v>216</v>
+      </c>
+      <c r="I61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" t="s">
+        <v>215</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" t="s">
+        <v>219</v>
+      </c>
+      <c r="H64" t="s">
+        <v>220</v>
+      </c>
+      <c r="I64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>224</v>
+      </c>
+      <c r="E65" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>222</v>
+      </c>
+      <c r="H65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
         <v>3</v>
       </c>
-      <c r="B58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
+        <v>227</v>
+      </c>
+      <c r="I67" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68" t="s">
+        <v>231</v>
+      </c>
+      <c r="G68" t="s">
+        <v>232</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>234</v>
+      </c>
+      <c r="H70" t="s">
+        <v>235</v>
+      </c>
+      <c r="I70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>238</v>
+      </c>
+      <c r="H71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F75" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F58" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" t="s">
-        <v>65</v>
-      </c>
-      <c r="H58" t="s">
-        <v>51</v>
+      <c r="H75" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples.xlsx
+++ b/examples.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="289">
   <si>
     <t>(0, 0, 0, 0)</t>
   </si>
@@ -679,6 +679,234 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>(-, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove-Pending</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off Off Off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On On On On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off On Off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Off Off On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On On Off On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>On On On Off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off Off Off On</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off Off On Off</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 0, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 1, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 1, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 1, 0)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, -, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 0, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, -, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, -, -)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>(1, -, -, -)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -687,91 +915,419 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(-, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove-Pending</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Off Off Off</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>On On On On</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Off On Off</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>On Off Off On</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>On On Off On</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>On On On Off</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off Off Off On</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off Off On Off</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 1, -)</t>
+    <t>(-, -, 1, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, 1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, -, -, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, -) | 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(-, -, 1, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 3</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(-, -, -, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 4</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, 0, 1, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 5</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, -) | 2,8,9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, -) | 1,8,9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, 0, -, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 8,9</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(-, 0, 1, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 9</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, -) | 9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, 1) | 8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, -, -, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 8</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, 0, 1, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 9</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(-, -, 1, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 3,9</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, 0, -, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 8</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, -, 1) | 4,8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, 1) | M1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(-, -, 1, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | M1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, -, 1, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | M1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, 1, 1) | M1,5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, -, -, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(-, 0, -, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, 0, 1, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 5, M1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, -, 1, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | M1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(-, -, 1, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | M1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(-, 0, 1, 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | M1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, 1, -) | 3, 9(3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, -, -, 1) | 4, 8(4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, 0, 1, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | M2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1, 0, -, -)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | M2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 0, -, 1) | M2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, -) | 2, 12(2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, -) | 1, 11(1)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -779,167 +1335,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(-, 0, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 1, 1)</t>
+    <t>(1, 0, 1, 1) | 5, 14(5), M1, M2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, 1, -) | 16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, -, -, 1) | 17</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, 1, -) | 18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-, 0, -, 1) | 19</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1533,7 +1945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,6 +1953,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="20" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="24" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1864,17 +2282,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -1887,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -2251,22 +2672,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -2280,25 +2701,74 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="G24" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2324,15 +2794,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -2345,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -2975,6 +3450,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>262</v>
+      </c>
       <c r="B31" t="s">
         <v>87</v>
       </c>
@@ -3005,55 +3483,55 @@
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>60</v>
+      <c r="B34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>188</v>
+      <c r="B35" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3066,15 +3544,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -3087,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -3717,6 +4198,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>269</v>
+      </c>
       <c r="B31" t="s">
         <v>87</v>
       </c>
@@ -3747,55 +4231,55 @@
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>185</v>
+      <c r="B34" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="H34" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>60</v>
+      <c r="I34" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>186</v>
+      <c r="B35" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>187</v>
+        <v>245</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>188</v>
+        <v>244</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3809,14 +4293,19 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -3829,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -4248,7 +4737,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>89</v>
@@ -4317,7 +4806,7 @@
         <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
@@ -4386,7 +4875,7 @@
         <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
@@ -4456,6 +4945,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>269</v>
+      </c>
       <c r="B31" t="s">
         <v>87</v>
       </c>
@@ -4486,8 +4978,8 @@
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>185</v>
+      <c r="B34" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -4504,19 +4996,19 @@
       <c r="G34" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>60</v>
+      <c r="H34" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>186</v>
+      <c r="B35" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
@@ -4524,17 +5016,17 @@
       <c r="D35" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>188</v>
+      <c r="E35" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4546,17 +5038,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="D43" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -4569,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -4988,7 +5485,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>89</v>
@@ -5057,7 +5554,7 @@
         <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
@@ -5126,7 +5623,7 @@
         <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
@@ -5196,6 +5693,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>278</v>
+      </c>
       <c r="B31" t="s">
         <v>87</v>
       </c>
@@ -5534,6 +6034,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>277</v>
+      </c>
       <c r="B50" t="s">
         <v>167</v>
       </c>
@@ -5632,11 +6135,11 @@
       <c r="A57" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>54</v>
+      <c r="B57" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="D57" t="s">
         <v>55</v>
@@ -5644,43 +6147,53 @@
       <c r="E57" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>60</v>
+      <c r="F57" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>186</v>
+      <c r="B58" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="D58" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>188</v>
+      <c r="E58" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5691,18 +6204,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -5715,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -6134,7 +6649,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>89</v>
@@ -6203,7 +6718,7 @@
         <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
@@ -6272,7 +6787,7 @@
         <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
@@ -6757,407 +7272,343 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>188</v>
+      <c r="G58" t="s">
+        <v>212</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>189</v>
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>16</v>
-      </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" t="s">
+        <v>216</v>
+      </c>
+      <c r="H60" t="s">
+        <v>217</v>
+      </c>
+      <c r="I60" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="H61" t="s">
-        <v>216</v>
-      </c>
-      <c r="I61" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>18</v>
+      </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" t="s">
-        <v>215</v>
-      </c>
-      <c r="H62" t="s">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>17</v>
-      </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>222</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>223</v>
+      </c>
+      <c r="G63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>224</v>
+      </c>
+      <c r="I63" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" t="s">
+        <v>229</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65">
         <v>19</v>
       </c>
-      <c r="C64" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" t="s">
-        <v>212</v>
-      </c>
-      <c r="F64" t="s">
-        <v>218</v>
-      </c>
-      <c r="G64" t="s">
-        <v>219</v>
-      </c>
-      <c r="H64" t="s">
-        <v>220</v>
-      </c>
-      <c r="I64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
-      </c>
-      <c r="E65" t="s">
-        <v>223</v>
-      </c>
-      <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>222</v>
-      </c>
-      <c r="H65" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>18</v>
-      </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>230</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>231</v>
+      </c>
+      <c r="H66" t="s">
+        <v>232</v>
+      </c>
+      <c r="I66" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="F67" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="H67" t="s">
-        <v>227</v>
-      </c>
-      <c r="I67" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>229</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" t="s">
-        <v>230</v>
-      </c>
-      <c r="F68" t="s">
-        <v>231</v>
-      </c>
-      <c r="G68" t="s">
-        <v>232</v>
-      </c>
-      <c r="H68" t="s">
-        <v>16</v>
+      <c r="A68" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D69" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>233</v>
-      </c>
-      <c r="F70" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" t="s">
-        <v>234</v>
-      </c>
-      <c r="H70" t="s">
-        <v>235</v>
-      </c>
-      <c r="I70" t="s">
-        <v>236</v>
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>240</v>
-      </c>
-      <c r="E71" t="s">
-        <v>239</v>
-      </c>
-      <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>238</v>
-      </c>
-      <c r="H71" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>128</v>
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" t="s">
-        <v>53</v>
+      <c r="A73" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>2</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CA" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="285">
   <si>
     <t>(0, 0, 0, 0)</t>
   </si>
@@ -896,22 +896,6 @@
   </si>
   <si>
     <t>(1, 0, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, -, -)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1945,11 +1929,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="24">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20">
@@ -2282,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2668,17 +2649,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
       <c r="B19" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
         <v>209</v>
@@ -2692,14 +2670,11 @@
       <c r="H19" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>60</v>
+      <c r="I19" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
       <c r="B20" s="2" t="s">
         <v>243</v>
       </c>
@@ -2710,70 +2685,22 @@
         <v>208</v>
       </c>
       <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" t="s">
+        <v>240</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" t="s">
-        <v>244</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" t="s">
-        <v>238</v>
-      </c>
-      <c r="H23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" t="s">
-        <v>245</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" t="s">
-        <v>244</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2794,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3451,7 +3378,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -3483,55 +3410,55 @@
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>266</v>
+      <c r="F34" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>261</v>
+      <c r="F35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4199,7 +4126,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -4231,8 +4158,8 @@
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>246</v>
+      <c r="B34" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="C34" t="s">
         <v>95</v>
@@ -4252,16 +4179,16 @@
       <c r="H34" t="s">
         <v>59</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>250</v>
+      <c r="I34" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>247</v>
+      <c r="B35" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="C35" t="s">
         <v>207</v>
@@ -4270,16 +4197,16 @@
         <v>208</v>
       </c>
       <c r="E35" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" t="s">
-        <v>244</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4946,7 +4873,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -4978,8 +4905,8 @@
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>267</v>
+      <c r="B34" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -4996,19 +4923,19 @@
       <c r="G34" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>270</v>
+      <c r="H34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>268</v>
+      <c r="B35" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
@@ -5016,17 +4943,17 @@
       <c r="D35" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>275</v>
+      <c r="E35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5694,7 +5621,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -6035,7 +5962,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
         <v>167</v>
@@ -6135,11 +6062,11 @@
       <c r="A57" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>279</v>
+      <c r="B57" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D57" t="s">
         <v>55</v>
@@ -6147,43 +6074,43 @@
       <c r="E57" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="H57" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>282</v>
+      <c r="B58" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="C58" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D58" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>275</v>
+      <c r="E58" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -6206,7 +6133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -7550,55 +7477,55 @@
       <c r="A70" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="E70" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="H70" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>275</v>
+      <c r="B71" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CA" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="300">
   <si>
     <t>(0, 0, 0, 0)</t>
   </si>
@@ -399,10 +399,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(0, -, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>(0, 1, -, -)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -427,10 +423,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(-, 1, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>(-, 1, 1, -)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -471,58 +463,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(1, 0, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Off On On On</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(1, -, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>On On On On</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(0, 0, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>pass</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>11(1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Check</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -531,22 +483,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(1, 1, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>pass</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>12(2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>fail</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -563,90 +503,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>14(5)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Off, On, -, -</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>On Off On On</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(0, -, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, -, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 1, 0, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>fail</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -663,30 +523,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>8(4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>9(3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8(4)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>9(3)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Remove-Pending</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -715,10 +551,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(0, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>On On Off On</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -731,22 +563,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(0, 0, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>pass</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(1, 1, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Off Off Off On</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -759,14 +579,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(1, -, -, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>(-, 0, 1, -)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -776,118 +588,6 @@
   </si>
   <si>
     <t>(1, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 0, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 1, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 1, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 1, 0)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, -, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, -, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, -, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 0, 1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, -, 1)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1261,23 +961,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(1, 0, 1, -)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | M2</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>M2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1286,57 +969,312 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>(1, 0, -, -)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | M2</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, -, 1) | M2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, -) | 2, 12(2)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, -, -) | 1, 11(1)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 1, -)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, 0, 1, 1) | 5, 14(5), M1, M2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, 1, -) | 16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1, -, -, 1) | 17</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, 1, -) | 18</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-, 0, -, 1) | 19</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 - - -</t>
+  </si>
+  <si>
+    <t>0 0 - -</t>
+  </si>
+  <si>
+    <t>0 - 0 -</t>
+  </si>
+  <si>
+    <t>0 - - 0</t>
+  </si>
+  <si>
+    <t>0 0 0 -</t>
+  </si>
+  <si>
+    <t>0 0 - 0</t>
+  </si>
+  <si>
+    <t>0 - 0 0</t>
+  </si>
+  <si>
+    <t>- 0 - -</t>
+  </si>
+  <si>
+    <t>- 0 0 -</t>
+  </si>
+  <si>
+    <t>- 0 - 0</t>
+  </si>
+  <si>
+    <t>- 0 0 0</t>
+  </si>
+  <si>
+    <t>- - 0 -</t>
+  </si>
+  <si>
+    <t>- - 0 0</t>
+  </si>
+  <si>
+    <t>- - - 0</t>
+  </si>
+  <si>
+    <t>1 1 0 0</t>
+  </si>
+  <si>
+    <t>1 - - -</t>
+  </si>
+  <si>
+    <t>1 1 - -</t>
+  </si>
+  <si>
+    <t>1 - 0 -</t>
+  </si>
+  <si>
+    <t>1 - - 0</t>
+  </si>
+  <si>
+    <t>1 1 0 -</t>
+  </si>
+  <si>
+    <t>1 1 - 0</t>
+  </si>
+  <si>
+    <t>1 - 0 0</t>
+  </si>
+  <si>
+    <t>- 1 - -</t>
+  </si>
+  <si>
+    <t>- 1 0 -</t>
+  </si>
+  <si>
+    <t>- 1 - 0</t>
+  </si>
+  <si>
+    <t>- 1 0 0</t>
+  </si>
+  <si>
+    <t>0 1 1 0</t>
+  </si>
+  <si>
+    <t>0 1 - -</t>
+  </si>
+  <si>
+    <t>0 - 1 -</t>
+  </si>
+  <si>
+    <t>0 1 1 -</t>
+  </si>
+  <si>
+    <t>0 1 - 0</t>
+  </si>
+  <si>
+    <t>0 - 1 0</t>
+  </si>
+  <si>
+    <t>- 1 1 -</t>
+  </si>
+  <si>
+    <t>- 1 1 0</t>
+  </si>
+  <si>
+    <t>- - 1 -</t>
+  </si>
+  <si>
+    <t>- - 1 0</t>
+  </si>
+  <si>
+    <t>0 1 0 1</t>
+  </si>
+  <si>
+    <t>0 - - 1</t>
+  </si>
+  <si>
+    <t>0 1 0 -</t>
+  </si>
+  <si>
+    <t>0 1 - 1</t>
+  </si>
+  <si>
+    <t>0 - 0 1</t>
+  </si>
+  <si>
+    <t>- 1 - 1</t>
+  </si>
+  <si>
+    <t>- 1 0 1</t>
+  </si>
+  <si>
+    <t>- - 0 1</t>
+  </si>
+  <si>
+    <t>- - - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 0 1 1</t>
+  </si>
+  <si>
+    <t>1 0 - -</t>
+  </si>
+  <si>
+    <t>1 - 1 -</t>
+  </si>
+  <si>
+    <t>1 - - 1</t>
+  </si>
+  <si>
+    <t>1 0 1 -</t>
+  </si>
+  <si>
+    <t>1 0 - 1</t>
+  </si>
+  <si>
+    <t>1 - 1 1</t>
+  </si>
+  <si>
+    <t>1 0 1 1</t>
+  </si>
+  <si>
+    <t>- 0 1 -</t>
+  </si>
+  <si>
+    <t>- 0 - 1</t>
+  </si>
+  <si>
+    <t>- 0 1 1</t>
+  </si>
+  <si>
+    <t>- - 1 1</t>
+  </si>
+  <si>
+    <t>0 0 1 1</t>
+  </si>
+  <si>
+    <t>0 0 1 -</t>
+  </si>
+  <si>
+    <t>0 0 - 1</t>
+  </si>
+  <si>
+    <t>0 - 1 1</t>
+  </si>
+  <si>
+    <t>0 1 1 1</t>
+  </si>
+  <si>
+    <t>- 1 1 1</t>
+  </si>
+  <si>
+    <t>- - Off Off</t>
+  </si>
+  <si>
+    <t>1 0 0 0</t>
+  </si>
+  <si>
+    <t>1 0 0 -</t>
+  </si>
+  <si>
+    <t>1 0 - 0</t>
+  </si>
+  <si>
+    <t>1 0 1 0</t>
+  </si>
+  <si>
+    <t>1 - 1 0</t>
+  </si>
+  <si>
+    <t>- 0 1 0</t>
+  </si>
+  <si>
+    <t>Off On - -</t>
+  </si>
+  <si>
+    <t>0 1 0 0</t>
+  </si>
+  <si>
+    <t>1 - - - | 2 122</t>
+  </si>
+  <si>
+    <t>1 0 - - | M2</t>
+  </si>
+  <si>
+    <t>1 0 1 - | M2</t>
+  </si>
+  <si>
+    <t>1 0 - 1 | M2</t>
+  </si>
+  <si>
+    <t>1 - 1 1 | M1</t>
+  </si>
+  <si>
+    <t>1 0 1 1 | 5 145 M1 M2</t>
+  </si>
+  <si>
+    <t>- 0 - - | 1 111</t>
+  </si>
+  <si>
+    <t>- 0 1 1 | M1</t>
+  </si>
+  <si>
+    <t>- - 1 - | 3 93</t>
+  </si>
+  <si>
+    <t>- - 1 1 | M1</t>
+  </si>
+  <si>
+    <t>- - - 1 | 4 84</t>
+  </si>
+  <si>
+    <t>8(4)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(1)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(2)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(5)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 1 1 0</t>
+  </si>
+  <si>
+    <t>1 1 1 -</t>
+  </si>
+  <si>
+    <t>1 1 0 1</t>
+  </si>
+  <si>
+    <t>1 1 - 1</t>
+  </si>
+  <si>
+    <t>1 - 0 1</t>
+  </si>
+  <si>
+    <t>0 0 1 0</t>
+  </si>
+  <si>
+    <t>0 0 0 1</t>
+  </si>
+  <si>
+    <t>- 0 0 1</t>
+  </si>
+  <si>
+    <t>1 - 1 - | 16</t>
+  </si>
+  <si>
+    <t>1 - - 1 | 17</t>
+  </si>
+  <si>
+    <t>- 0 1 - | 18</t>
+  </si>
+  <si>
+    <t>- 0 - 1 | 19</t>
   </si>
 </sst>
 </file>
@@ -2281,7 +2219,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2289,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -2631,7 +2569,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -2650,51 +2588,51 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
         <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +2659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2739,7 +2677,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -2747,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -3106,7 +3044,7 @@
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -3378,7 +3316,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -3389,7 +3327,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -3411,28 +3349,28 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -3440,25 +3378,25 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +3425,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -3495,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -3854,7 +3792,7 @@
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -3992,7 +3930,7 @@
         <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -4061,7 +3999,7 @@
         <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -4126,18 +4064,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -4159,28 +4097,28 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
         <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="G34" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="H34" t="s">
         <v>59</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -4188,25 +4126,25 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +4175,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -4245,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -4664,7 +4602,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
         <v>89</v>
@@ -4730,10 +4668,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
@@ -4799,10 +4737,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
@@ -4819,22 +4757,22 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
         <v>116</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>117</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>118</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>119</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>120</v>
-      </c>
-      <c r="H28" t="s">
-        <v>121</v>
       </c>
       <c r="I28" t="s">
         <v>91</v>
@@ -4848,13 +4786,13 @@
         <v>110</v>
       </c>
       <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
         <v>123</v>
-      </c>
-      <c r="D29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" t="s">
-        <v>125</v>
       </c>
       <c r="F29" t="s">
         <v>39</v>
@@ -4873,7 +4811,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
         <v>87</v>
@@ -4884,7 +4822,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -4906,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -4924,10 +4862,10 @@
         <v>58</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -4935,7 +4873,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
@@ -4944,16 +4882,16 @@
         <v>62</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4967,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="D43" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4985,7 +4923,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -4993,10 +4931,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -5007,28 +4945,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -5036,25 +4974,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -5065,7 +5003,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -5076,28 +5014,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -5105,25 +5043,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -5134,7 +5072,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -5145,28 +5083,28 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -5174,25 +5112,25 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -5203,7 +5141,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -5214,28 +5152,28 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -5243,25 +5181,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -5272,7 +5210,7 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -5283,28 +5221,28 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -5312,30 +5250,30 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -5346,7 +5284,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -5357,28 +5295,28 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -5386,25 +5324,25 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -5412,10 +5350,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>261</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
@@ -5426,28 +5364,28 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -5455,36 +5393,36 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -5495,28 +5433,28 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -5524,36 +5462,36 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -5564,28 +5502,28 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -5593,25 +5531,25 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -5621,18 +5559,18 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -5640,193 +5578,193 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="I38" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>286</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -5834,125 +5772,125 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="I44" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="H45" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="H47" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -5962,18 +5900,18 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -5981,67 +5919,67 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="G53" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="H53" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="I53" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -6052,7 +5990,7 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
         <v>53</v>
@@ -6063,28 +6001,28 @@
         <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" t="s">
+        <v>247</v>
+      </c>
+      <c r="E57" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -6095,22 +6033,22 @@
         <v>278</v>
       </c>
       <c r="C58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -6126,6 +6064,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6133,7 +6072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -6149,7 +6088,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6157,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -6171,28 +6110,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -6200,25 +6139,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -6229,7 +6168,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -6240,28 +6179,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -6269,25 +6208,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -6298,7 +6237,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -6309,28 +6248,28 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -6338,25 +6277,25 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -6367,7 +6306,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -6378,28 +6317,28 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -6407,25 +6346,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -6436,7 +6375,7 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
         <v>53</v>
@@ -6447,28 +6386,28 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -6476,30 +6415,30 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -6510,7 +6449,7 @@
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -6521,28 +6460,28 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -6550,25 +6489,25 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -6576,10 +6515,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>261</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
@@ -6590,28 +6529,28 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -6619,36 +6558,36 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>179</v>
+      <c r="A24">
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -6659,28 +6598,28 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -6688,36 +6627,36 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>180</v>
+      <c r="A27">
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -6728,28 +6667,28 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -6757,25 +6696,25 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -6785,15 +6724,15 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -6801,193 +6740,193 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>145</v>
+      <c r="A37">
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="I38" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>150</v>
+      <c r="A40">
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -6995,125 +6934,125 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="I44" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="H45" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>156</v>
+      <c r="A46">
+        <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>246</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>249</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="H47" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -7123,15 +7062,15 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -7139,67 +7078,67 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="G53" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="H53" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="I53" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -7207,62 +7146,62 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F57" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="H57" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="I57" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="F58" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -7270,62 +7209,62 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="F60" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G60" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="H60" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="I60" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="D61" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G61" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="H61" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -7333,62 +7272,62 @@
         <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F63" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="H63" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I63" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G64" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -7396,67 +7335,67 @@
         <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="G66" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="H66" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="I66" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E67" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G67" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H67" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -7467,7 +7406,7 @@
         <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="D69" t="s">
         <v>53</v>
@@ -7478,28 +7417,28 @@
         <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -7510,22 +7449,22 @@
         <v>278</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
